--- a/biology/Botanique/Cyttaria/Cyttaria.xlsx
+++ b/biology/Botanique/Cyttaria/Cyttaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyttaria est un genre de champignons parasites de la classe des ascomycètes.
 Il est comestible. On le trouve en Océanie, en Patagonie subantarctique, jusqu'en Terre de Feu, là où se trouvent les arbres du genre Nothofagus car il a la particularité de parasiter exclusivement les troncs et les branches de ces arbres de la famille des Fagaceae comme le guindo ou coihue de magallanes (Nothofagus betuloides), le lenga (Nothofagus pumilio), le ñire (Nothofagus antarctica).
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon qui a une croissance très lente et qui forme des tumeurs (nœuds) aux branches et aux troncs des arbres infectés. Ces tumeurs ont une forme arrondie et boursoufflée du même aspect que le bois et l'écorce. Elles peuvent atteindre des circonférences importantes (deux à trois mètres). Les « fruits » en forme de petite boule (jusqu'à quatre centimètres de diamètre) de couleur jaune à jaune pâle sont comestibles et se développent en groupe ou solitaires par cycle au niveau des nœuds. Ils ont un corps spongieux et alvéolé. Le pied de la fructification, très court et large, contient plus ou moins un jus transparent et gélatineux très légèrement sucré.
 </t>
@@ -545,7 +559,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon se trouve exclusivement là où se trouvent les Nothofagus. Il est présent dans les provinces de Neuquén, de Chubut, Río-Negro jusqu'à la Terre de Feu (Patagonie chilienne et argentine), régions au climat subantarctique, ainsi qu'en Océanie.
 </t>
